--- a/Knapper på midtkonsoll/Knapper.xlsx
+++ b/Knapper på midtkonsoll/Knapper.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipol\Documents\GitHub\A22\Knapper på midtkonsoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B372F-9B2E-4ABB-B5A4-AACDCF8FA879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{99E4985B-183C-456D-8708-0FEA532B5D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>Hva</t>
   </si>
@@ -53,31 +40,85 @@
     <t>set value</t>
   </si>
   <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Justering av 1023 mBar</t>
   </si>
   <si>
+    <t>linje 1</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>0x0330</t>
+  </si>
+  <si>
+    <t>$-10</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
     <t>Justering av VOR1</t>
   </si>
   <si>
+    <t>0x0C4E</t>
+  </si>
+  <si>
+    <t>$+1</t>
+  </si>
+  <si>
     <t>Justering av VOR2</t>
   </si>
   <si>
-    <t>linje 1</t>
+    <t>0x0C5E</t>
+  </si>
+  <si>
+    <t>nav /GPS</t>
+  </si>
+  <si>
+    <t>ON/OFF</t>
+  </si>
+  <si>
+    <t>0x132C</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>Landing Light switch</t>
   </si>
   <si>
     <t>linje 2</t>
   </si>
   <si>
+    <t>0x028C</t>
+  </si>
+  <si>
+    <t>NAV Lights switch</t>
+  </si>
+  <si>
+    <t>0x0280</t>
+  </si>
+  <si>
+    <t>Strob.Light switch</t>
+  </si>
+  <si>
+    <t>0x0281</t>
+  </si>
+  <si>
     <t>GPS switch</t>
   </si>
   <si>
-    <t>NAV Lights switch</t>
-  </si>
-  <si>
-    <t>Strob.Light switch</t>
-  </si>
-  <si>
-    <t>Landing Light switch</t>
+    <t>0x2E80</t>
   </si>
   <si>
     <t>Inetcom switch</t>
@@ -86,100 +127,105 @@
     <t>IGN A switch</t>
   </si>
   <si>
+    <t>linje 3</t>
+  </si>
+  <si>
     <t>IGN B switch</t>
   </si>
   <si>
-    <t>linje 3</t>
-  </si>
-  <si>
     <t>Master og start motor</t>
   </si>
   <si>
     <t>linje 4</t>
   </si>
   <si>
-    <t>ON/OFF</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
     <t>ON/OFF/Momentary</t>
   </si>
   <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>0x0330</t>
-  </si>
-  <si>
-    <t>$-10</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>0xFFFF</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>bytes</t>
-  </si>
-  <si>
-    <t>0x0C4E</t>
-  </si>
-  <si>
-    <t>$+1</t>
-  </si>
-  <si>
-    <t>0x0C5E</t>
-  </si>
-  <si>
-    <t>0x028C</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>0x0280</t>
-  </si>
-  <si>
-    <t>0xFF</t>
-  </si>
-  <si>
-    <t>0x0281</t>
-  </si>
-  <si>
-    <t>0x2E80</t>
-  </si>
-  <si>
-    <t>0xFFFFFFFF</t>
+    <t>COM1/2 send</t>
+  </si>
+  <si>
+    <t>$+128-64/$-128+64</t>
+  </si>
+  <si>
+    <t>recive both</t>
+  </si>
+  <si>
+    <t>$+/-32</t>
+  </si>
+  <si>
+    <t>NAV 1 lyd</t>
+  </si>
+  <si>
+    <t>$+/-16</t>
+  </si>
+  <si>
+    <t>NAV 2 lyd</t>
+  </si>
+  <si>
+    <t>$+/-8</t>
+  </si>
+  <si>
+    <t>Xplane?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-414]General"/>
+    <numFmt numFmtId="165" formatCode="[$kr-414]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$kr-414]&quot; &quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -192,66 +238,101 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="ConditionalStyle_1" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Result" xfId="5"/>
+    <cellStyle name="Result2" xfId="6"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
         </patternFill>
       </fill>
       <border>
         <left style="thin">
-          <color auto="1"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
         </right>
         <top/>
         <bottom/>
@@ -271,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -287,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -299,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -316,7 +397,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -346,12 +427,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -381,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,312 +647,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="36" width="9.140625" style="1"/>
-    <col min="37" max="41" width="9.140625" style="3"/>
-    <col min="42" max="42" width="9.140625" style="4"/>
-    <col min="43" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="21.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
+    <col min="9" max="36" width="8.5" style="2" customWidth="1"/>
+    <col min="37" max="41" width="8.5" style="3" customWidth="1"/>
+    <col min="42" max="42" width="8.5" style="4" customWidth="1"/>
+    <col min="43" max="1024" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3122</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3122</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3122</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:AMJ1048576">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>